--- a/Language/zh-Hans-CN.xlsx
+++ b/Language/zh-Hans-CN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19905" windowHeight="12495"/>
+    <workbookView windowWidth="19665" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="zh-Hans-CN" sheetId="1" r:id="rId1"/>
@@ -82,13 +82,13 @@
     <t>87chjY045IWbBFtnt0+c8t</t>
   </si>
   <si>
-    <t>确定要花费星星x，来购买农场币x吗？</t>
+    <t>确定要花费星星{0}，来购买农场币{1}吗？</t>
   </si>
   <si>
     <t>944AcGN0hNaKYlY0FlgMhb</t>
   </si>
   <si>
-    <t>确定要花费农场币x，来购买金币x吗？</t>
+    <t>确定要花费农场币{0}，来购买金币{1}吗？</t>
   </si>
   <si>
     <t>25HjoD39ZJHJIQ9UhOZgzD</t>
@@ -727,11 +727,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -755,19 +755,52 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,18 +815,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -802,52 +827,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,15 +845,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,23 +880,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,7 +912,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +930,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,13 +960,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,7 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,103 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,17 +1106,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,7 +1125,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,7 +1149,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,35 +1186,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,10 +1209,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,31 +1221,37 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1261,88 +1260,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1351,10 +1320,34 @@
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1365,7 +1358,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1387,7 +1380,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1775,8 +1768,8 @@
   <sheetPr/>
   <dimension ref="A1:D16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/Language/zh-Hans-CN.xlsx
+++ b/Language/zh-Hans-CN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19665" windowHeight="11910"/>
+    <workbookView windowWidth="28125" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="zh-Hans-CN" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="252">
   <si>
     <t>key</t>
   </si>
@@ -224,6 +224,57 @@
   </si>
   <si>
     <t>英文</t>
+  </si>
+  <si>
+    <t>5X2H45860K4ZR9D8B1A7Q2C</t>
+  </si>
+  <si>
+    <t>购买了{0}</t>
+  </si>
+  <si>
+    <t>信息反馈</t>
+  </si>
+  <si>
+    <t>1J4L31980G6PZ2F5C0R8T4M</t>
+  </si>
+  <si>
+    <t>出售了{0}</t>
+  </si>
+  <si>
+    <t>3T6M74521V3QW8K9J2B5Y0D</t>
+  </si>
+  <si>
+    <t>获得{0}金币</t>
+  </si>
+  <si>
+    <t>8G5N67240P1KQ3X6C9R4B2H</t>
+  </si>
+  <si>
+    <t>获得{0}经验</t>
+  </si>
+  <si>
+    <t>KQ3X6C9R4B2H8G5N67240P1</t>
+  </si>
+  <si>
+    <t>获得{0}农场币</t>
+  </si>
+  <si>
+    <t>7F9B22490T5LJ1H3K8W6P5R</t>
+  </si>
+  <si>
+    <t>建造了{0}</t>
+  </si>
+  <si>
+    <t>2E3A58670H4QN9C1R7K8L5D</t>
+  </si>
+  <si>
+    <t>金币不够</t>
+  </si>
+  <si>
+    <t>6U1K90328P7ZQ5A4B9T1R6F</t>
+  </si>
+  <si>
+    <t>农场币不够</t>
   </si>
   <si>
     <t>P5B8R0N7C3X2A1L6Q9T4K2M</t>
@@ -728,8 +779,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -759,6 +810,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -775,7 +840,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -799,8 +915,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,7 +932,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,79 +953,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -912,7 +963,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,6 +1023,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -942,13 +1041,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,13 +1065,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,13 +1113,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,103 +1137,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,6 +1154,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1117,15 +1177,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,15 +1196,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1169,17 +1211,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,16 +1239,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,137 +1272,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1363,6 +1414,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1766,10 +1823,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16384"/>
+  <dimension ref="A1:D16392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2196,129 +2253,129 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>85</v>
+      <c r="D37" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>85</v>
+      <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="C39" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2332,35 +2389,35 @@
         <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A41" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="11" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2374,7 +2431,7 @@
         <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2388,982 +2445,1086 @@
         <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A45" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A46" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A47" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>105</v>
+      <c r="B47" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A48" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>107</v>
+      <c r="B48" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>109</v>
+      <c r="B49" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>111</v>
+      <c r="B50" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>113</v>
+      <c r="B51" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>115</v>
+      <c r="B52" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A53" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="11" t="s">
         <v>118</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A54" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A55" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A56" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A57" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A58" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="11" t="s">
         <v>128</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A59" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A60" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A61" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A62" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B62" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>136</v>
+      <c r="B62" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A63" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B63" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>138</v>
+      <c r="B63" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A64" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>140</v>
+      <c r="B64" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A65" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>142</v>
+      <c r="B65" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A66" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>144</v>
+      <c r="B66" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A67" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>146</v>
+      <c r="B67" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A68" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B68" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>148</v>
+      <c r="B68" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A69" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B69" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>150</v>
+      <c r="B69" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A70" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B70" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>152</v>
+      <c r="B70" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A71" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B71" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>154</v>
+      <c r="B71" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A72" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B72" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>156</v>
+      <c r="B72" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A73" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>158</v>
+      <c r="B73" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A74" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B74" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>160</v>
+      <c r="B74" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A75" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>162</v>
+      <c r="B75" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A76" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B76" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>164</v>
+      <c r="B76" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A77" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>166</v>
+      <c r="B77" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A78" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>168</v>
+      <c r="B78" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A79" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B79" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>170</v>
+      <c r="B79" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A80" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B80" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>172</v>
+      <c r="B80" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A81" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B81" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>174</v>
+      <c r="B81" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A82" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B82" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>176</v>
+      <c r="B82" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A83" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B83" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>178</v>
+      <c r="B83" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A84" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B84" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>180</v>
+      <c r="B84" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A85" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B85" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>182</v>
+      <c r="B85" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A86" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B86" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>184</v>
+      <c r="B86" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A87" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B87" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>186</v>
+      <c r="B87" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B88" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>188</v>
+      <c r="B88" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A89" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B89" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>190</v>
+      <c r="B89" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A90" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>192</v>
+      <c r="B90" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A91" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B91" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>194</v>
+      <c r="B91" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A92" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B92" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>196</v>
+      <c r="B92" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="93" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="93" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A93" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B93" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>116</v>
+      <c r="B93" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="94" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="94" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A94" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B94" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>116</v>
+      <c r="B94" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="95" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="95" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A95" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B95" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>116</v>
+      <c r="B95" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="96" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="96" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A96" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B96" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>116</v>
+      <c r="B96" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="97" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="97" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A97" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B97" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>116</v>
+      <c r="B97" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="98" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="98" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A98" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B98" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>116</v>
+      <c r="B98" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="99" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="99" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A99" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B99" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>116</v>
+      <c r="B99" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="100" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="100" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A100" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B100" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>116</v>
+      <c r="B100" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="101" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A101" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B101" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>214</v>
+      <c r="B101" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A102" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B102" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>216</v>
+      <c r="B102" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A103" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B103" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>218</v>
+      <c r="B103" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A104" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B104" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>220</v>
+      <c r="B104" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A105" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B105" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>222</v>
+      <c r="B105" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A106" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B106" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>224</v>
+      <c r="B106" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A107" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B107" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C107" s="11" t="s">
-        <v>226</v>
+      <c r="B107" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A108" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B108" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>228</v>
+      <c r="B108" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A109" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B109" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>230</v>
+      <c r="B109" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A110" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B110" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>232</v>
+      <c r="B110" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A111" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B111" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>234</v>
+      <c r="B111" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="112" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A112" s="12"/>
+    <row r="112" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A112" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="113" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A113" s="12"/>
+    <row r="113" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A113" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="114" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A114" s="12"/>
+    <row r="114" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A114" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="115" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A115" s="12"/>
+    <row r="115" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A115" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="116" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A116" s="12"/>
+    <row r="116" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A116" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="117" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A117" s="12"/>
+    <row r="117" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A117" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="118" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A118" s="12"/>
+    <row r="118" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A118" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="119" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A119" s="12"/>
+    <row r="119" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A119" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="120" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A120" s="12"/>
+      <c r="A120" s="14"/>
     </row>
-    <row r="121" s="4" customFormat="1"/>
-    <row r="122" s="4" customFormat="1"/>
-    <row r="123" s="4" customFormat="1"/>
-    <row r="124" s="4" customFormat="1"/>
-    <row r="125" s="4" customFormat="1"/>
-    <row r="126" s="4" customFormat="1"/>
-    <row r="127" s="4" customFormat="1"/>
-    <row r="128" s="4" customFormat="1"/>
+    <row r="121" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A121" s="14"/>
+    </row>
+    <row r="122" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A122" s="14"/>
+    </row>
+    <row r="123" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A123" s="14"/>
+    </row>
+    <row r="124" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A124" s="14"/>
+    </row>
+    <row r="125" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A125" s="14"/>
+    </row>
+    <row r="126" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A126" s="14"/>
+    </row>
+    <row r="127" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A127" s="14"/>
+    </row>
+    <row r="128" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A128" s="14"/>
+    </row>
     <row r="129" s="4" customFormat="1"/>
     <row r="130" s="4" customFormat="1"/>
     <row r="131" s="4" customFormat="1"/>
@@ -19620,6 +19781,14 @@
     <row r="16382" s="4" customFormat="1"/>
     <row r="16383" s="4" customFormat="1"/>
     <row r="16384" s="4" customFormat="1"/>
+    <row r="16385" s="4" customFormat="1"/>
+    <row r="16386" s="4" customFormat="1"/>
+    <row r="16387" s="4" customFormat="1"/>
+    <row r="16388" s="4" customFormat="1"/>
+    <row r="16389" s="4" customFormat="1"/>
+    <row r="16390" s="4" customFormat="1"/>
+    <row r="16391" s="4" customFormat="1"/>
+    <row r="16392" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Language/zh-Hans-CN.xlsx
+++ b/Language/zh-Hans-CN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500"/>
+    <workbookView windowWidth="14070" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="zh-Hans-CN" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="254">
   <si>
     <t>key</t>
   </si>
@@ -229,7 +229,7 @@
     <t>5X2H45860K4ZR9D8B1A7Q2C</t>
   </si>
   <si>
-    <t>购买了{0}</t>
+    <t>购买了{0}，花费了{1}金币。</t>
   </si>
   <si>
     <t>信息反馈</t>
@@ -238,7 +238,13 @@
     <t>1J4L31980G6PZ2F5C0R8T4M</t>
   </si>
   <si>
-    <t>出售了{0}</t>
+    <t>出售了{0}，获得了{1}金币。</t>
+  </si>
+  <si>
+    <t>G6PZ2F5C0R8T4M1J4L31980</t>
+  </si>
+  <si>
+    <t>购买了{0}，花费了{1}农场币。</t>
   </si>
   <si>
     <t>3T6M74521V3QW8K9J2B5Y0D</t>
@@ -777,10 +783,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -811,14 +817,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,23 +831,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,7 +847,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,6 +870,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -899,6 +897,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -907,26 +913,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -946,11 +937,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -963,19 +969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,43 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,13 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,7 +1011,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,7 +1041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,7 +1065,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,7 +1083,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,43 +1149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,11 +1163,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,21 +1189,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1254,16 +1251,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1272,133 +1278,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1823,16 +1829,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16392"/>
+  <dimension ref="A1:D16393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="13.5" spans="1:4">
@@ -2281,7 +2288,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2365,73 +2372,73 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>89</v>
+      <c r="D39" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A41" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2445,35 +2452,35 @@
         <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A45" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A46" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="C46" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2487,7 +2494,7 @@
         <v>106</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2501,7 +2508,7 @@
         <v>108</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2515,7 +2522,7 @@
         <v>110</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2529,7 +2536,7 @@
         <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2543,7 +2550,7 @@
         <v>114</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2557,7 +2564,7 @@
         <v>116</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2571,7 +2578,7 @@
         <v>118</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2585,7 +2592,7 @@
         <v>120</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2599,7 +2606,7 @@
         <v>122</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2613,7 +2620,7 @@
         <v>124</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2627,7 +2634,7 @@
         <v>126</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2641,7 +2648,7 @@
         <v>128</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2655,35 +2662,35 @@
         <v>130</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A60" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A61" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="C61" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2697,7 +2704,7 @@
         <v>137</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2711,7 +2718,7 @@
         <v>139</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2725,7 +2732,7 @@
         <v>141</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2739,7 +2746,7 @@
         <v>143</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2753,7 +2760,7 @@
         <v>145</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2767,7 +2774,7 @@
         <v>147</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2781,7 +2788,7 @@
         <v>149</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2795,7 +2802,7 @@
         <v>151</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2809,7 +2816,7 @@
         <v>153</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2823,7 +2830,7 @@
         <v>155</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2837,7 +2844,7 @@
         <v>157</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2851,7 +2858,7 @@
         <v>159</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2865,7 +2872,7 @@
         <v>161</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2879,7 +2886,7 @@
         <v>163</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2893,7 +2900,7 @@
         <v>165</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2907,7 +2914,7 @@
         <v>167</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2921,7 +2928,7 @@
         <v>169</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2935,7 +2942,7 @@
         <v>171</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2949,7 +2956,7 @@
         <v>173</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2963,7 +2970,7 @@
         <v>175</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2977,7 +2984,7 @@
         <v>177</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2991,7 +2998,7 @@
         <v>179</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3005,7 +3012,7 @@
         <v>181</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3019,7 +3026,7 @@
         <v>183</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3033,7 +3040,7 @@
         <v>185</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3047,7 +3054,7 @@
         <v>187</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3061,7 +3068,7 @@
         <v>189</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3075,7 +3082,7 @@
         <v>191</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3089,7 +3096,7 @@
         <v>193</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3103,7 +3110,7 @@
         <v>195</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3117,7 +3124,7 @@
         <v>197</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3131,7 +3138,7 @@
         <v>199</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3145,7 +3152,7 @@
         <v>201</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3159,7 +3166,7 @@
         <v>203</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3173,7 +3180,7 @@
         <v>205</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3187,7 +3194,7 @@
         <v>207</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3201,7 +3208,7 @@
         <v>209</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3215,7 +3222,7 @@
         <v>211</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3229,21 +3236,21 @@
         <v>213</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="101" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="101" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A101" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>133</v>
+      <c r="D101" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3257,7 +3264,7 @@
         <v>217</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3271,7 +3278,7 @@
         <v>219</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3285,7 +3292,7 @@
         <v>221</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3299,7 +3306,7 @@
         <v>223</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3313,7 +3320,7 @@
         <v>225</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3327,7 +3334,7 @@
         <v>227</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3341,7 +3348,7 @@
         <v>229</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3355,7 +3362,7 @@
         <v>231</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3369,7 +3376,7 @@
         <v>233</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3383,7 +3390,7 @@
         <v>235</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3397,7 +3404,7 @@
         <v>237</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3411,7 +3418,7 @@
         <v>239</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3425,35 +3432,35 @@
         <v>241</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A115" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="12" t="s">
         <v>243</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A116" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="13" t="s">
         <v>245</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3467,7 +3474,7 @@
         <v>247</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3481,7 +3488,7 @@
         <v>249</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3495,11 +3502,22 @@
         <v>251</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="120" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A120" s="14"/>
+    <row r="120" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A120" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="121" s="4" customFormat="1" ht="17.25" spans="1:1">
       <c r="A121" s="14"/>
@@ -3525,7 +3543,9 @@
     <row r="128" s="4" customFormat="1" ht="17.25" spans="1:1">
       <c r="A128" s="14"/>
     </row>
-    <row r="129" s="4" customFormat="1"/>
+    <row r="129" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A129" s="14"/>
+    </row>
     <row r="130" s="4" customFormat="1"/>
     <row r="131" s="4" customFormat="1"/>
     <row r="132" s="4" customFormat="1"/>
@@ -19789,6 +19809,7 @@
     <row r="16390" s="4" customFormat="1"/>
     <row r="16391" s="4" customFormat="1"/>
     <row r="16392" s="4" customFormat="1"/>
+    <row r="16393" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Language/zh-Hans-CN.xlsx
+++ b/Language/zh-Hans-CN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="256">
   <si>
     <t>key</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>农场币不够</t>
+  </si>
+  <si>
+    <t>ZQ5A4B9T1R6F6U1K90328P7</t>
+  </si>
+  <si>
+    <t>出售失败</t>
   </si>
   <si>
     <t>P5B8R0N7C3X2A1L6Q9T4K2M</t>
@@ -783,10 +789,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -817,7 +823,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,8 +881,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,21 +892,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,28 +906,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,24 +921,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,26 +958,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -969,7 +975,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,13 +1029,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,43 +1107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,13 +1125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,19 +1137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,49 +1149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,6 +1166,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1193,6 +1210,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1211,28 +1246,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,25 +1266,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1278,133 +1284,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1829,10 +1835,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16393"/>
+  <dimension ref="A1:D16394"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2386,73 +2392,73 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>91</v>
+      <c r="D40" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="C41" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A44" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="11" t="s">
         <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2466,35 +2472,35 @@
         <v>101</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A46" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="9" t="s">
         <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A47" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="C47" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2508,7 +2514,7 @@
         <v>108</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2522,7 +2528,7 @@
         <v>110</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2536,7 +2542,7 @@
         <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2550,7 +2556,7 @@
         <v>114</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2564,7 +2570,7 @@
         <v>116</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2578,7 +2584,7 @@
         <v>118</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2592,7 +2598,7 @@
         <v>120</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2606,7 +2612,7 @@
         <v>122</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2620,7 +2626,7 @@
         <v>124</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2634,7 +2640,7 @@
         <v>126</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2648,7 +2654,7 @@
         <v>128</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2662,7 +2668,7 @@
         <v>130</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2676,35 +2682,35 @@
         <v>132</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A61" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="11" t="s">
         <v>134</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A62" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="C62" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2718,7 +2724,7 @@
         <v>139</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2732,7 +2738,7 @@
         <v>141</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2746,7 +2752,7 @@
         <v>143</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2760,7 +2766,7 @@
         <v>145</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2774,7 +2780,7 @@
         <v>147</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2788,7 +2794,7 @@
         <v>149</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2802,7 +2808,7 @@
         <v>151</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2816,7 +2822,7 @@
         <v>153</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2830,7 +2836,7 @@
         <v>155</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2844,7 +2850,7 @@
         <v>157</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2858,7 +2864,7 @@
         <v>159</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2872,7 +2878,7 @@
         <v>161</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2886,7 +2892,7 @@
         <v>163</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2900,7 +2906,7 @@
         <v>165</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2914,7 +2920,7 @@
         <v>167</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2928,7 +2934,7 @@
         <v>169</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2942,7 +2948,7 @@
         <v>171</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2956,7 +2962,7 @@
         <v>173</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2970,7 +2976,7 @@
         <v>175</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2984,7 +2990,7 @@
         <v>177</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -2998,7 +3004,7 @@
         <v>179</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3012,7 +3018,7 @@
         <v>181</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3026,7 +3032,7 @@
         <v>183</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3040,7 +3046,7 @@
         <v>185</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3054,7 +3060,7 @@
         <v>187</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3068,7 +3074,7 @@
         <v>189</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3082,7 +3088,7 @@
         <v>191</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3096,7 +3102,7 @@
         <v>193</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3110,7 +3116,7 @@
         <v>195</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3124,7 +3130,7 @@
         <v>197</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3138,7 +3144,7 @@
         <v>199</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3152,7 +3158,7 @@
         <v>201</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3166,7 +3172,7 @@
         <v>203</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3180,7 +3186,7 @@
         <v>205</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3194,7 +3200,7 @@
         <v>207</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3208,7 +3214,7 @@
         <v>209</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3222,7 +3228,7 @@
         <v>211</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3236,7 +3242,7 @@
         <v>213</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3250,21 +3256,21 @@
         <v>215</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="102" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="102" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A102" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>135</v>
+      <c r="D102" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3278,7 +3284,7 @@
         <v>219</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3292,7 +3298,7 @@
         <v>221</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3306,7 +3312,7 @@
         <v>223</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3320,7 +3326,7 @@
         <v>225</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3334,7 +3340,7 @@
         <v>227</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3348,7 +3354,7 @@
         <v>229</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3362,7 +3368,7 @@
         <v>231</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3376,7 +3382,7 @@
         <v>233</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3390,7 +3396,7 @@
         <v>235</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3404,7 +3410,7 @@
         <v>237</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3418,7 +3424,7 @@
         <v>239</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3432,7 +3438,7 @@
         <v>241</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3446,35 +3452,35 @@
         <v>243</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A116" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="12" t="s">
         <v>245</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A117" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="13" t="s">
         <v>247</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3488,7 +3494,7 @@
         <v>249</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3502,7 +3508,7 @@
         <v>251</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3516,11 +3522,22 @@
         <v>253</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="121" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A121" s="14"/>
+    <row r="121" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A121" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="17.25" spans="1:1">
       <c r="A122" s="14"/>
@@ -3546,7 +3563,9 @@
     <row r="129" s="4" customFormat="1" ht="17.25" spans="1:1">
       <c r="A129" s="14"/>
     </row>
-    <row r="130" s="4" customFormat="1"/>
+    <row r="130" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A130" s="14"/>
+    </row>
     <row r="131" s="4" customFormat="1"/>
     <row r="132" s="4" customFormat="1"/>
     <row r="133" s="4" customFormat="1"/>
@@ -19810,6 +19829,7 @@
     <row r="16391" s="4" customFormat="1"/>
     <row r="16392" s="4" customFormat="1"/>
     <row r="16393" s="4" customFormat="1"/>
+    <row r="16394" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Language/zh-Hans-CN.xlsx
+++ b/Language/zh-Hans-CN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="272">
   <si>
     <t>key</t>
   </si>
@@ -229,7 +229,7 @@
     <t>5X2H45860K4ZR9D8B1A7Q2C</t>
   </si>
   <si>
-    <t>购买了{0}，花费了{1}金币。</t>
+    <t>购买了{0}，花费了{1}金币</t>
   </si>
   <si>
     <t>信息反馈</t>
@@ -238,13 +238,13 @@
     <t>1J4L31980G6PZ2F5C0R8T4M</t>
   </si>
   <si>
-    <t>出售了{0}，获得了{1}金币。</t>
+    <t>出售了{0}，获得了{1}金币</t>
   </si>
   <si>
     <t>G6PZ2F5C0R8T4M1J4L31980</t>
   </si>
   <si>
-    <t>购买了{0}，花费了{1}农场币。</t>
+    <t>购买了{0}，花费了{1}农场币</t>
   </si>
   <si>
     <t>3T6M74521V3QW8K9J2B5Y0D</t>
@@ -283,10 +283,58 @@
     <t>农场币不够</t>
   </si>
   <si>
+    <t>QW8R3D5T2Y7F6J9K41256P8</t>
+  </si>
+  <si>
+    <t>购买失败</t>
+  </si>
+  <si>
     <t>ZQ5A4B9T1R6F6U1K90328P7</t>
   </si>
   <si>
     <t>出售失败</t>
+  </si>
+  <si>
+    <t>A1B2C3D4E5F6G7H8I9J0K1L</t>
+  </si>
+  <si>
+    <t>操作失败，网络波动</t>
+  </si>
+  <si>
+    <t>M4N5O6P7Q8R9S0T1U2V3W4X</t>
+  </si>
+  <si>
+    <t>操作失败</t>
+  </si>
+  <si>
+    <t>Z9Y8X7W6V5U4T3S2R1Q0P9W</t>
+  </si>
+  <si>
+    <t>{0}的家</t>
+  </si>
+  <si>
+    <t>H3J4K5L6M7N8O9P0Q1R2S3T</t>
+  </si>
+  <si>
+    <t>制作成功</t>
+  </si>
+  <si>
+    <t>F7G8H9J0K1L2M3N4O5P6Q7R</t>
+  </si>
+  <si>
+    <t>获得了{0}</t>
+  </si>
+  <si>
+    <t>T2U3V4W5X6Y7Z8A9B0C1D2E</t>
+  </si>
+  <si>
+    <t>恭喜您，充值成功</t>
+  </si>
+  <si>
+    <t>P8Q9R1S2T3U4V5W6X7Y8Z0A</t>
+  </si>
+  <si>
+    <t>恭喜您，兑换成功</t>
   </si>
   <si>
     <t>P5B8R0N7C3X2A1L6Q9T4K2M</t>
@@ -823,6 +871,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -844,8 +961,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,109 +1008,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -975,7 +1023,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,19 +1107,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,37 +1161,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,103 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,10 +1219,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1212,9 +1258,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,7 +1295,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,40 +1314,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1284,137 +1332,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1431,7 +1479,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1835,10 +1886,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16394"/>
+  <dimension ref="A1:D16402"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2269,41 +2320,41 @@
       <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2311,13 +2362,13 @@
       <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2325,13 +2376,13 @@
       <c r="A35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2339,13 +2390,13 @@
       <c r="A36" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2353,13 +2404,13 @@
       <c r="A37" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2367,13 +2418,13 @@
       <c r="A38" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2381,13 +2432,13 @@
       <c r="A39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2395,1078 +2446,1078 @@
       <c r="A40" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>93</v>
+      <c r="D41" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>93</v>
+      <c r="C42" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>93</v>
+      <c r="C43" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>93</v>
+      <c r="C44" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>93</v>
+      <c r="C45" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>93</v>
+      <c r="C46" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>106</v>
+      <c r="C47" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
-      <c r="A48" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="A48" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>106</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A49" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A50" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>112</v>
+      <c r="C50" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A51" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="C51" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A52" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>116</v>
+      <c r="C52" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A53" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>118</v>
+      <c r="C53" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A54" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>120</v>
+      <c r="C54" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A55" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="C55" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A56" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A57" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="12" t="s">
         <v>126</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A58" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="12" t="s">
         <v>128</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A59" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A60" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="12" t="s">
         <v>132</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A61" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A62" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A63" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>139</v>
+      <c r="C63" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A64" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>141</v>
+      <c r="C64" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A65" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>143</v>
+      <c r="C65" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A66" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>145</v>
+      <c r="C66" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A67" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>147</v>
+      <c r="C67" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A68" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>149</v>
+      <c r="C68" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A69" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>151</v>
+      <c r="C69" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A70" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="C70" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A71" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>155</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A72" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A73" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="10" t="s">
         <v>159</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A74" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A75" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>163</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A76" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="10" t="s">
         <v>165</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A77" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>167</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A78" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="10" t="s">
         <v>169</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A79" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>171</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A80" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A81" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="10" t="s">
         <v>175</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A82" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="10" t="s">
         <v>177</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A83" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="10" t="s">
         <v>179</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A84" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="10" t="s">
         <v>181</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A85" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="10" t="s">
         <v>183</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A86" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="10" t="s">
         <v>185</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A87" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="10" t="s">
         <v>187</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A88" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="10" t="s">
         <v>189</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A89" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="10" t="s">
         <v>191</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A90" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="10" t="s">
         <v>193</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A91" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>195</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A92" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A93" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="10" t="s">
         <v>199</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A94" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="10" t="s">
         <v>201</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A95" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="10" t="s">
         <v>203</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A96" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="10" t="s">
         <v>205</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A97" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A98" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="10" t="s">
         <v>209</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A99" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="10" t="s">
         <v>211</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A100" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="10" t="s">
         <v>213</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A101" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="10" t="s">
         <v>215</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A102" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="10" t="s">
         <v>217</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="103" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="103" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A103" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>137</v>
+      <c r="D103" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="104" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="104" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A104" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>137</v>
+      <c r="D104" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="105" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="105" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A105" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>137</v>
+      <c r="D105" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="106" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="106" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A106" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>137</v>
+      <c r="D106" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="107" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="107" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A107" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>137</v>
+      <c r="D107" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="108" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="108" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A108" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>137</v>
+      <c r="D108" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="109" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="109" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A109" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>137</v>
+      <c r="D109" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="110" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+    <row r="110" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A110" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>137</v>
+      <c r="D110" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A111" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="13" t="s">
         <v>235</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A112" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="13" t="s">
         <v>237</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A113" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="13" t="s">
         <v>239</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A114" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="13" t="s">
         <v>241</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A115" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="13" t="s">
         <v>243</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A116" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="13" t="s">
         <v>245</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
@@ -3480,100 +3531,204 @@
         <v>247</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A118" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="13" t="s">
         <v>249</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A119" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="13" t="s">
         <v>251</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A120" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="13" t="s">
         <v>253</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A121" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="13" t="s">
         <v>255</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="122" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A122" s="14"/>
+    <row r="122" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A122" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="123" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A123" s="14"/>
+    <row r="123" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A123" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="124" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A124" s="14"/>
+    <row r="124" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A124" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="125" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A125" s="14"/>
+    <row r="125" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A125" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="126" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A126" s="14"/>
+    <row r="126" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A126" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="127" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A127" s="14"/>
+    <row r="127" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A127" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="128" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A128" s="14"/>
+    <row r="128" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A128" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="129" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A129" s="14"/>
+    <row r="129" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A129" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="130" s="4" customFormat="1" ht="17.25" spans="1:1">
-      <c r="A130" s="14"/>
+      <c r="A130" s="15"/>
     </row>
-    <row r="131" s="4" customFormat="1"/>
-    <row r="132" s="4" customFormat="1"/>
-    <row r="133" s="4" customFormat="1"/>
-    <row r="134" s="4" customFormat="1"/>
-    <row r="135" s="4" customFormat="1"/>
-    <row r="136" s="4" customFormat="1"/>
-    <row r="137" s="4" customFormat="1"/>
-    <row r="138" s="4" customFormat="1"/>
+    <row r="131" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A131" s="15"/>
+    </row>
+    <row r="132" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A132" s="15"/>
+    </row>
+    <row r="133" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A133" s="15"/>
+    </row>
+    <row r="134" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A134" s="15"/>
+    </row>
+    <row r="135" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A135" s="15"/>
+    </row>
+    <row r="136" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A136" s="15"/>
+    </row>
+    <row r="137" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A137" s="15"/>
+    </row>
+    <row r="138" s="4" customFormat="1" ht="17.25" spans="1:1">
+      <c r="A138" s="15"/>
+    </row>
     <row r="139" s="4" customFormat="1"/>
     <row r="140" s="4" customFormat="1"/>
     <row r="141" s="4" customFormat="1"/>
@@ -19830,6 +19985,14 @@
     <row r="16392" s="4" customFormat="1"/>
     <row r="16393" s="4" customFormat="1"/>
     <row r="16394" s="4" customFormat="1"/>
+    <row r="16395" s="4" customFormat="1"/>
+    <row r="16396" s="4" customFormat="1"/>
+    <row r="16397" s="4" customFormat="1"/>
+    <row r="16398" s="4" customFormat="1"/>
+    <row r="16399" s="4" customFormat="1"/>
+    <row r="16400" s="4" customFormat="1"/>
+    <row r="16401" s="4" customFormat="1"/>
+    <row r="16402" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
